--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aling\OneDrive\Documents\GitHub\Matsci-Lab-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2F6D4D-9F0B-4892-A349-03D624A23170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3671F27B-A4E1-4FD1-96C2-8FECFC0668F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D4D7B25-F7E2-40B1-A55E-66AFF90445E6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Experiement </t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Ping Pong Across</t>
+  </si>
+  <si>
+    <t>Initial Velocity (V0)</t>
+  </si>
+  <si>
+    <t>Direction</t>
   </si>
 </sst>
 </file>
@@ -448,23 +454,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F78ED11-1967-44AA-A6D5-315A5CAFC3A9}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="2" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,20 +480,26 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -498,22 +510,30 @@
         <v>-0.5</v>
       </c>
       <c r="D2">
+        <f>SQRT(B2^2+C2^2)</f>
+        <v>0.51662365412357958</v>
+      </c>
+      <c r="E2">
+        <f>ATAN2(C2,B2)*180/PI()</f>
+        <v>-165.42578380196127</v>
+      </c>
+      <c r="F2">
         <v>3.363</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>-5.74E-2</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>-5.6899999999999999E-2</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -524,22 +544,30 @@
         <v>9.0960000000000001</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">SQRT(B3^2+C3^2)</f>
+        <v>11.588959271651618</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="1">ATAN2(C3,B3)*180/PI()</f>
+        <v>38.289958957610757</v>
+      </c>
+      <c r="F3">
         <v>1.7649999999999999</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>5.1539000000000001</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>4.9489999999999998</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>4.7889999999999997</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -550,22 +578,30 @@
         <v>-1.87</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.8701644419676042</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-179.24018607737739</v>
+      </c>
+      <c r="F4">
         <v>3.6019999999999999</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>1.04E-2</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.01E-2</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -576,18 +612,26 @@
         <v>7.9480000000000004</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>10.780203755031721</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>42.499999329571615</v>
+      </c>
+      <c r="F5">
         <v>1.859</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>4.8564999999999996</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>4.3257000000000003</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>4.1390000000000002</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>10</v>
       </c>
     </row>
